--- a/Software/Airbnb.xlsx
+++ b/Software/Airbnb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F87418-3803-B442-94CE-DFB8F7F86101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454D21E7-FBC5-BB40-8BBF-8CB05216BB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="162">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -315,9 +352,6 @@
   </si>
   <si>
     <t>- -</t>
-  </si>
-  <si>
-    <t>Airbnb</t>
   </si>
   <si>
     <t>Revenue Growth YoY</t>
@@ -528,11 +562,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="172" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -907,24 +942,8 @@
     <xf numFmtId="2" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -943,10 +962,6 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -972,7 +987,6 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -988,6 +1002,31 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1006,21 +1045,19 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="172" fontId="13" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2106,6 +2143,446 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=bwvem7&amp;q=XNAS%3aABNB&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>AIRBNB, INC. (XNAS:ABNB)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-US</v>
+    <v>bwvem7</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>174.64</v>
+    <v>81.91</v>
+    <v>1.5669999999999999</v>
+    <v>-5.65</v>
+    <v>-4.8986000000000002E-2</v>
+    <v>-0.2</v>
+    <v>-1.823E-3</v>
+    <v>USD</v>
+    <v>Airbnb, Inc. primarily operates a global platform for stays and experiences. The Company’s marketplace model connects hosts and guests online or through mobile devices to book spaces and experiences around the world. It partners with hosts throughout the process of setting up their listing and provide them with a range of tools to manage their listings, including scheduling, merchandising, integrated payments, community support, host protections, pricing guidance, and feedback from reviews. Its Website and mobile applications provide its guests a way to explore a variety of homes and experiences and an easy way to book them. Its hosts generally fall into two categories: individual and professional. Individual hosts list their spaces, including private rooms, primary homes, or vacation homes, on Airbnb. Professional hosts are often those who run property management or hospitality businesses and generally use application programming interfaces to list their properties on its platform.</v>
+    <v>6811</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>888 Brannan St., SAN FRANCISCO, CA, 94103 US</v>
+    <v>113.41500000000001</v>
+    <v>Software &amp; IT Services</v>
+    <v>Stock</v>
+    <v>45022.999814883595</v>
+    <v>0</v>
+    <v>107.66</v>
+    <v>69250423165</v>
+    <v>AIRBNB, INC.</v>
+    <v>AIRBNB, INC.</v>
+    <v>113.34</v>
+    <v>41.326599999999999</v>
+    <v>115.34</v>
+    <v>109.69</v>
+    <v>109.49</v>
+    <v>631328500</v>
+    <v>ABNB</v>
+    <v>AIRBNB, INC. (XNAS:ABNB)</v>
+    <v>14400096</v>
+    <v>4832184</v>
+    <v>2008</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="45">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2405,11 +2882,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S105" sqref="S105"/>
+      <selection pane="bottomRight" activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2421,8 +2898,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>94</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>2017</v>
@@ -2498,24 +2975,24 @@
     </row>
     <row r="3" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" s="27">
+        <v>157</v>
+      </c>
+      <c r="B3" s="24">
         <v>13900</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="24">
         <v>20970</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="24">
         <v>29400</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="24">
         <v>23890</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="24">
         <v>46880</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="24">
         <v>63200</v>
       </c>
       <c r="H3" s="1"/>
@@ -2527,19 +3004,19 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
@@ -2583,22 +3060,22 @@
       <c r="L4" s="15">
         <v>16651000000</v>
       </c>
-      <c r="M4" s="59" t="s">
+      <c r="M4" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="N4" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="N4" s="59" t="s">
+      <c r="O4" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="O4" s="59" t="s">
+      <c r="P4" s="21" t="s">
         <v>111</v>
-      </c>
-      <c r="P4" s="21" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="18">
@@ -2641,15 +3118,15 @@
         <f t="shared" ref="L5" si="2">(L4/K4)-1</f>
         <v>0.1411047149122806</v>
       </c>
-      <c r="M5" s="58">
+      <c r="M5" s="45">
         <f>(G5+F5+E5)/3</f>
         <v>0.29281256188782862</v>
       </c>
-      <c r="N5" s="58">
+      <c r="N5" s="45">
         <f>(G21+F21+E21)/3</f>
         <v>6.5927165252214168</v>
       </c>
-      <c r="O5" s="58">
+      <c r="O5" s="45">
         <f>(G30+F30+E30)/3</f>
         <v>-0.50056919516481246</v>
       </c>
@@ -2723,17 +3200,17 @@
       <c r="G7" s="10">
         <v>6900000000</v>
       </c>
-      <c r="M7" s="59" t="s">
+      <c r="M7" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="N7" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="N7" s="59" t="s">
+      <c r="O7" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="O7" s="59" t="s">
+      <c r="P7" s="21" t="s">
         <v>115</v>
-      </c>
-      <c r="P7" s="21" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -2758,15 +3235,15 @@
       <c r="G8" s="2">
         <v>0.82150000000000001</v>
       </c>
-      <c r="M8" s="58">
+      <c r="M8" s="45">
         <f>G8</f>
         <v>0.82150000000000001</v>
       </c>
-      <c r="N8" s="58">
+      <c r="N8" s="45">
         <f>G22</f>
         <v>0.24929999999999999</v>
       </c>
-      <c r="O8" s="58">
+      <c r="O8" s="45">
         <f>G31</f>
         <v>0.22539999999999999</v>
       </c>
@@ -2800,7 +3277,7 @@
     </row>
     <row r="10" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B10" s="18">
         <f>B9/B4</f>
@@ -2831,17 +3308,17 @@
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
-      <c r="M10" s="59" t="s">
+      <c r="M10" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="N10" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="N10" s="21" t="s">
+      <c r="O10" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="O10" s="21" t="s">
+      <c r="P10" s="21" t="s">
         <v>99</v>
-      </c>
-      <c r="P10" s="21" t="s">
-        <v>100</v>
       </c>
       <c r="Q10" s="18"/>
     </row>
@@ -2867,15 +3344,15 @@
       <c r="G11" s="1">
         <v>950000000</v>
       </c>
-      <c r="M11" s="58">
+      <c r="M11" s="45">
         <f>(G10+F10+E10)/3</f>
         <v>0.41051960633031248</v>
       </c>
-      <c r="N11" s="58">
+      <c r="N11" s="45">
         <f>(G14+F14+E14)/3</f>
         <v>0.43828694165068605</v>
       </c>
-      <c r="O11" s="58">
+      <c r="O11" s="45">
         <f>(G81+F81+E81)/3</f>
         <v>0.38312075768395881</v>
       </c>
@@ -2929,22 +3406,22 @@
       <c r="G13" s="1">
         <v>2466000000</v>
       </c>
-      <c r="M13" s="59" t="s">
+      <c r="M13" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="N13" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="N13" s="59" t="s">
+      <c r="O13" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="O13" s="59" t="s">
+      <c r="P13" s="21" t="s">
         <v>119</v>
-      </c>
-      <c r="P13" s="21" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" s="18">
         <f>B13/B4</f>
@@ -2975,7 +3452,7 @@
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
-      <c r="M14" s="58">
+      <c r="M14" s="45">
         <f>G29/G73</f>
         <v>0.34046762589928059</v>
       </c>
@@ -2983,7 +3460,7 @@
         <f>G29/G55</f>
         <v>0.11803217358772915</v>
       </c>
-      <c r="O14" s="58">
+      <c r="O14" s="45">
         <f>(G29-G99)/G74</f>
         <v>0.11803217358772915</v>
       </c>
@@ -3038,17 +3515,17 @@
       <c r="G16" s="1">
         <v>5009000000</v>
       </c>
-      <c r="M16" s="59" t="s">
-        <v>122</v>
+      <c r="M16" s="46" t="s">
+        <v>121</v>
       </c>
       <c r="N16" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="O16" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="O16" s="21" t="s">
+      <c r="P16" s="49" t="s">
         <v>160</v>
-      </c>
-      <c r="P16" s="62" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -3077,17 +3554,17 @@
         <f>(SUM(C36:G36)/5)</f>
         <v>0.14224609231543348</v>
       </c>
-      <c r="N17" s="60">
+      <c r="N17" s="47">
         <f>O101/G4</f>
-        <v>9.524943445648292</v>
-      </c>
-      <c r="O17" s="60">
+        <v>8.2450795529229666</v>
+      </c>
+      <c r="O17" s="47">
         <f>O101/G26</f>
-        <v>40.221216691804926</v>
-      </c>
-      <c r="P17" s="61">
+        <v>34.816703451483157</v>
+      </c>
+      <c r="P17" s="48">
         <f>O101/G107</f>
-        <v>23.494860499265787</v>
+        <v>20.337862897209984</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -3135,8 +3612,8 @@
       <c r="G19" s="1">
         <v>81000000</v>
       </c>
-      <c r="M19" s="71" t="s">
-        <v>162</v>
+      <c r="M19" s="50" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -3161,14 +3638,14 @@
       <c r="G20" s="10">
         <v>2094000000</v>
       </c>
-      <c r="M20" s="72">
+      <c r="M20" s="51">
         <f>G41-G57-G62</f>
         <v>7281000000</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="18">
@@ -3386,7 +3863,7 @@
     </row>
     <row r="30" spans="1:17" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="18">
@@ -3535,26 +4012,26 @@
     </row>
     <row r="36" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="28">
+      <c r="C36" s="25">
         <f>(C35-B35)/B35</f>
         <v>1.7703355702125129E-2</v>
       </c>
-      <c r="D36" s="28">
+      <c r="D36" s="25">
         <f t="shared" ref="D36:G36" si="7">(D35-C35)/C35</f>
         <v>-1.7395398770117431E-2</v>
       </c>
-      <c r="E36" s="28">
+      <c r="E36" s="25">
         <f t="shared" si="7"/>
         <v>-0.45493943941929316</v>
       </c>
-      <c r="F36" s="28">
+      <c r="F36" s="25">
         <f t="shared" si="7"/>
         <v>1.1658619440644529</v>
       </c>
-      <c r="G36" s="28">
+      <c r="G36" s="25">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -4409,7 +4886,7 @@
       <c r="G73" s="10">
         <v>5560000000</v>
       </c>
-      <c r="M73" s="52"/>
+      <c r="M73" s="40"/>
     </row>
     <row r="74" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
@@ -4574,7 +5051,7 @@
     </row>
     <row r="81" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B81" s="18">
         <f t="shared" ref="B81:G81" si="8">B80/B4</f>
@@ -4657,7 +5134,7 @@
         <v>93</v>
       </c>
       <c r="N83" s="65" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O83" s="66"/>
     </row>
@@ -4684,7 +5161,7 @@
         <v>93</v>
       </c>
       <c r="N84" s="67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O84" s="68"/>
     </row>
@@ -4710,10 +5187,10 @@
       <c r="G85" s="1">
         <v>20000000</v>
       </c>
-      <c r="N85" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="O85" s="25">
+      <c r="N85" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="O85" s="54">
         <f>G18</f>
         <v>24000000</v>
       </c>
@@ -4740,10 +5217,10 @@
       <c r="G86" s="1">
         <v>280000000</v>
       </c>
-      <c r="N86" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="O86" s="25">
+      <c r="N86" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="O86" s="54">
         <f>G57</f>
         <v>59000000</v>
       </c>
@@ -4770,10 +5247,10 @@
       <c r="G87" s="1">
         <v>208000000</v>
       </c>
-      <c r="N87" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="O87" s="25">
+      <c r="N87" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="O87" s="54">
         <f>G62</f>
         <v>2282000000</v>
       </c>
@@ -4800,10 +5277,10 @@
       <c r="G88" s="10">
         <v>3430000000</v>
       </c>
-      <c r="N88" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="O88" s="30">
+      <c r="N88" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="O88" s="56">
         <f>O85/(O86+O87)</f>
         <v>1.0252029047415635E-2</v>
       </c>
@@ -4830,17 +5307,17 @@
       <c r="G89" s="1">
         <v>-25000000</v>
       </c>
-      <c r="N89" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="O89" s="25">
+      <c r="N89" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="O89" s="54">
         <f>G28</f>
         <v>96000000</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A90" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B90" s="18">
         <f t="shared" ref="B90:G90" si="9">(-1*B89)/B4</f>
@@ -4872,10 +5349,10 @@
       <c r="K90" s="18"/>
       <c r="L90" s="18"/>
       <c r="M90" s="18"/>
-      <c r="N90" s="24" t="s">
+      <c r="N90" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="O90" s="25">
+      <c r="O90" s="54">
         <f>G26</f>
         <v>1989000000</v>
       </c>
@@ -4904,10 +5381,10 @@
       <c r="G91" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="N91" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="O91" s="30">
+      <c r="N91" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="O91" s="56">
         <f>O89/O90</f>
         <v>4.8265460030165915E-2</v>
       </c>
@@ -4934,10 +5411,10 @@
       <c r="G92" s="1">
         <v>-4072000000</v>
       </c>
-      <c r="N92" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="O92" s="32">
+      <c r="N92" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="O92" s="58">
         <f>O88*(1-O91)</f>
         <v>9.7572101491994953E-3</v>
       </c>
@@ -4964,10 +5441,10 @@
       <c r="G93" s="1">
         <v>4071000000</v>
       </c>
-      <c r="N93" s="67" t="s">
-        <v>131</v>
-      </c>
-      <c r="O93" s="68"/>
+      <c r="N93" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="O93" s="70"/>
     </row>
     <row r="94" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
@@ -4991,10 +5468,10 @@
       <c r="G94" s="1">
         <v>-2000000</v>
       </c>
-      <c r="N94" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="O94" s="26">
+      <c r="N94" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="O94" s="59">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -5020,11 +5497,12 @@
       <c r="G95" s="10">
         <v>-28000000</v>
       </c>
-      <c r="N95" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="O95" s="33">
-        <v>1.22</v>
+      <c r="N95" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="O95" s="60" cm="1">
+        <f t="array" ref="O95">_FV(A1,"Beta")</f>
+        <v>1.5669999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -5049,10 +5527,10 @@
       <c r="G96" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="N96" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="O96" s="26">
+      <c r="N96" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="O96" s="59">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -5078,12 +5556,12 @@
       <c r="G97" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="N97" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="O97" s="32">
+      <c r="N97" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="O97" s="58">
         <f>(O94)+((O95)*(O96-O94))</f>
-        <v>9.3470999999999999E-2</v>
+        <v>0.10840935</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -5108,37 +5586,37 @@
       <c r="G98" s="1">
         <v>-1500000000</v>
       </c>
-      <c r="N98" s="67" t="s">
-        <v>135</v>
-      </c>
-      <c r="O98" s="68"/>
+      <c r="N98" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="O98" s="70"/>
     </row>
     <row r="99" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B99" s="27">
+      <c r="B99" s="24">
         <v>0</v>
       </c>
-      <c r="C99" s="27">
+      <c r="C99" s="24">
         <v>0</v>
       </c>
-      <c r="D99" s="27">
+      <c r="D99" s="24">
         <v>0</v>
       </c>
-      <c r="E99" s="27">
+      <c r="E99" s="24">
         <v>0</v>
       </c>
-      <c r="F99" s="27">
+      <c r="F99" s="24">
         <v>0</v>
       </c>
-      <c r="G99" s="27">
+      <c r="G99" s="24">
         <v>0</v>
       </c>
-      <c r="N99" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="O99" s="25">
+      <c r="N99" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="O99" s="54">
         <f>O86+O87</f>
         <v>2341000000</v>
       </c>
@@ -5165,12 +5643,12 @@
       <c r="G100" s="1">
         <v>811000000</v>
       </c>
-      <c r="N100" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="O100" s="30">
+      <c r="N100" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="O100" s="56">
         <f>O99/O103</f>
-        <v>2.8430551001323762E-2</v>
+        <v>3.2699447734187252E-2</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -5195,11 +5673,12 @@
       <c r="G101" s="10">
         <v>-689000000</v>
       </c>
-      <c r="N101" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="O101" s="34">
-        <v>80000000000</v>
+      <c r="N101" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="O101" s="34" cm="1">
+        <f t="array" ref="O101">_FV(A1,"Market cap",TRUE)</f>
+        <v>69250423165</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -5224,12 +5703,12 @@
       <c r="G102" s="1">
         <v>-337000000</v>
       </c>
-      <c r="N102" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="O102" s="30">
+      <c r="N102" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="O102" s="56">
         <f>O101/O103</f>
-        <v>0.97156944899867625</v>
+        <v>0.9673005522658128</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -5254,12 +5733,12 @@
       <c r="G103" s="10">
         <v>2376000000</v>
       </c>
-      <c r="N103" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="O103" s="35">
+      <c r="N103" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="O103" s="61">
         <f>O99+O101</f>
-        <v>82341000000</v>
+        <v>71591423165</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -5285,7 +5764,7 @@
         <v>9727000000</v>
       </c>
       <c r="N104" s="67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O104" s="68"/>
     </row>
@@ -5311,17 +5790,17 @@
       <c r="G105" s="11">
         <v>12103000000</v>
       </c>
-      <c r="N105" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="O105" s="37">
+      <c r="N105" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="O105" s="27">
         <f>(O100*O92)+(O102*O97)</f>
-        <v>9.1090970828132709E-2</v>
+        <v>0.10518347950908302</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="20" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A106" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="18">
@@ -5350,10 +5829,10 @@
       <c r="K106" s="18"/>
       <c r="L106" s="18"/>
       <c r="M106" s="18"/>
-      <c r="N106" s="69" t="s">
-        <v>145</v>
-      </c>
-      <c r="O106" s="70"/>
+      <c r="N106" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="O106" s="72"/>
       <c r="P106" s="18"/>
       <c r="Q106" s="18"/>
     </row>
@@ -5379,170 +5858,171 @@
       <c r="G107" s="1">
         <v>3405000000</v>
       </c>
-      <c r="H107" s="51">
+      <c r="H107" s="39">
         <f>G107*(1+$O$107)</f>
         <v>3904665499.3593912</v>
       </c>
-      <c r="I107" s="51">
+      <c r="I107" s="39">
         <f>H107*(1+$O$107)</f>
         <v>4477654232.5660858</v>
       </c>
-      <c r="J107" s="51">
+      <c r="J107" s="39">
         <f>I107*(1+$O$107)</f>
         <v>5134725991.1780748</v>
       </c>
-      <c r="K107" s="51">
+      <c r="K107" s="39">
         <f>J107*(1+$O$107)</f>
         <v>5888219508.492506</v>
       </c>
-      <c r="L107" s="51">
+      <c r="L107" s="39">
         <f>K107*(1+$O$107)</f>
         <v>6752284160.7828484</v>
       </c>
-      <c r="M107" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="N107" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="O107" s="54">
+      <c r="M107" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="N107" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="O107" s="42">
         <f>(SUM(H5:L5)/5)</f>
         <v>0.14674464004681095</v>
       </c>
     </row>
     <row r="108" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="H108" s="40"/>
-      <c r="I108" s="40"/>
-      <c r="J108" s="40"/>
-      <c r="K108" s="40"/>
-      <c r="L108" s="50">
+      <c r="H108" s="30"/>
+      <c r="I108" s="30"/>
+      <c r="J108" s="30"/>
+      <c r="K108" s="30"/>
+      <c r="L108" s="38">
         <f>L107*(1+O108)/(O109-O108)</f>
-        <v>104720677848.7258</v>
-      </c>
-      <c r="M108" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="N108" s="47" t="s">
+        <v>86315676336.026443</v>
+      </c>
+      <c r="M108" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="O108" s="48">
+      <c r="N108" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="O108" s="36">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="H109" s="50">
+      <c r="H109" s="38">
         <f t="shared" ref="H109:J109" si="10">H108+H107</f>
         <v>3904665499.3593912</v>
       </c>
-      <c r="I109" s="50">
+      <c r="I109" s="38">
         <f t="shared" si="10"/>
         <v>4477654232.5660858</v>
       </c>
-      <c r="J109" s="50">
+      <c r="J109" s="38">
         <f t="shared" si="10"/>
         <v>5134725991.1780748</v>
       </c>
-      <c r="K109" s="50">
+      <c r="K109" s="38">
         <f>K108+K107</f>
         <v>5888219508.492506</v>
       </c>
-      <c r="L109" s="50">
+      <c r="L109" s="38">
         <f>L108+L107</f>
-        <v>111472962009.50865</v>
-      </c>
-      <c r="M109" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="N109" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="O109" s="49">
+        <v>93067960496.809296</v>
+      </c>
+      <c r="M109" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="N109" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="O109" s="37">
         <f>O105</f>
-        <v>9.1090970828132709E-2</v>
+        <v>0.10518347950908302</v>
       </c>
     </row>
     <row r="110" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="H110" s="63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I110" s="64"/>
     </row>
     <row r="111" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H111" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="I111" s="46">
+      <c r="H111" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="I111" s="34">
         <f>NPV(O109,H109,I109,J109,K109,L109)</f>
-        <v>87535963959.268433</v>
+        <v>71394901778.885529</v>
       </c>
     </row>
     <row r="112" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H112" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="I112" s="46">
+      <c r="H112" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="I112" s="34">
         <f>G41</f>
         <v>9622000000</v>
       </c>
     </row>
     <row r="113" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H113" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="I113" s="46">
+      <c r="H113" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="I113" s="34">
         <f>O99</f>
         <v>2341000000</v>
       </c>
     </row>
     <row r="114" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H114" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="I114" s="46">
+      <c r="H114" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="I114" s="34">
         <f>I111+I112-I113</f>
-        <v>94816963959.268433</v>
+        <v>78675901778.885529</v>
       </c>
     </row>
     <row r="115" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H115" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="I115" s="73">
+      <c r="H115" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="I115" s="52">
         <f>G35*(1+(5*M17))</f>
         <v>1053931440.2112232</v>
       </c>
     </row>
     <row r="116" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H116" s="42" t="s">
+      <c r="H116" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="I116" s="73">
+        <f>I114/I115</f>
+        <v>74.649923872768923</v>
+      </c>
+    </row>
+    <row r="117" spans="8:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="H117" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="I116" s="57">
-        <f>I114/I115</f>
-        <v>89.965020817925051</v>
-      </c>
-    </row>
-    <row r="117" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H117" s="44" t="s">
+      <c r="I117" s="62" cm="1">
+        <f t="array" ref="I117">_FV(A1,"Price")</f>
+        <v>109.69</v>
+      </c>
+    </row>
+    <row r="118" spans="8:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H118" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="I117" s="45">
-        <v>126.33</v>
-      </c>
-    </row>
-    <row r="118" spans="8:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H118" s="43" t="s">
+      <c r="I118" s="43">
+        <f>I116/I117-1</f>
+        <v>-0.31944640466068985</v>
+      </c>
+    </row>
+    <row r="119" spans="8:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H119" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="I118" s="55">
-        <f>I116/I117-1</f>
-        <v>-0.28785703460836654</v>
-      </c>
-    </row>
-    <row r="119" spans="8:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H119" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="I119" s="56" t="str">
+      <c r="I119" s="44" t="str">
         <f>IF(I116&gt;I117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
